--- a/HRM/HRM.xlsx
+++ b/HRM/HRM.xlsx
@@ -9,10 +9,11 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="30">
   <si>
     <t>Configure</t>
   </si>
@@ -60,13 +61,67 @@
   </si>
   <si>
     <t>salarybreak down</t>
+  </si>
+  <si>
+    <t>branch</t>
+  </si>
+  <si>
+    <t>Branch</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>code</t>
+  </si>
+  <si>
+    <t>location</t>
+  </si>
+  <si>
+    <t>status</t>
+  </si>
+  <si>
+    <t>Department</t>
+  </si>
+  <si>
+    <t>branch name</t>
+  </si>
+  <si>
+    <t>Section</t>
+  </si>
+  <si>
+    <t>sub-section</t>
+  </si>
+  <si>
+    <t>department name</t>
+  </si>
+  <si>
+    <t>section name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Employee </t>
+  </si>
+  <si>
+    <t>personal info</t>
+  </si>
+  <si>
+    <t>family information</t>
+  </si>
+  <si>
+    <t>skill</t>
+  </si>
+  <si>
+    <t>education</t>
+  </si>
+  <si>
+    <t>document</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -80,8 +135,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -91,6 +154,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -107,10 +182,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -393,8 +471,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C4:L10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -462,4 +540,153 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A4:L22"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N3" sqref="N3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.140625" style="4"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="J4" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" t="s">
+        <v>19</v>
+      </c>
+      <c r="G5" t="s">
+        <v>12</v>
+      </c>
+      <c r="J5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" t="s">
+        <v>14</v>
+      </c>
+      <c r="G6" t="s">
+        <v>1</v>
+      </c>
+      <c r="J6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G7" t="s">
+        <v>14</v>
+      </c>
+      <c r="J7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" t="s">
+        <v>17</v>
+      </c>
+      <c r="G8" t="s">
+        <v>15</v>
+      </c>
+      <c r="J8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="G9" t="s">
+        <v>17</v>
+      </c>
+      <c r="J9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J10" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" s="5"/>
+      <c r="B13" s="5"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5"/>
+      <c r="I13" s="5"/>
+      <c r="J13" s="5"/>
+      <c r="K13" s="5"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>29</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>